--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -1,156 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010665</t>
-  </si>
-  <si>
-    <t>002595</t>
-  </si>
-  <si>
-    <t>010666</t>
-  </si>
-  <si>
-    <t>002703</t>
-  </si>
-  <si>
-    <t>168401</t>
-  </si>
-  <si>
-    <t>博时高端装备混合A</t>
-  </si>
-  <si>
-    <t>博时工业4.0主题股票</t>
-  </si>
-  <si>
-    <t>博时高端装备混合C</t>
-  </si>
-  <si>
-    <t>长城久源灵活配置混合</t>
-  </si>
-  <si>
-    <t>红土创新转型精选灵活配置混合（LOF）</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>87.84</t>
-  </si>
-  <si>
-    <t>88.21</t>
-  </si>
-  <si>
-    <t>91.34</t>
-  </si>
-  <si>
-    <t>93.43</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
-    <t>0.0683</t>
-  </si>
-  <si>
-    <t>0.0386</t>
-  </si>
-  <si>
-    <t>0.0363</t>
-  </si>
-  <si>
-    <t>0.0354</t>
-  </si>
-  <si>
-    <t>0.0222</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,167 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.54</v>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.39</v>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1330,13 +1395,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.41</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.39</v>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.54</v>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,247 +455,743 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010665</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时高端装备混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010666</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时高端装备混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -722,7 +1218,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -752,36 +1248,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>008866</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合</t>
+          <t>博时产业新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>86.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1456</t>
+          <t>0.2178</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -800,26 +1296,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.32</t>
+          <t>76.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1320</t>
+          <t>0.0859</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -828,32 +1324,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>010665</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>博时高端装备混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.68</t>
+          <t>87.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -866,36 +1362,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010665</t>
+          <t>002595</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时高端装备混合A</t>
+          <t>博时工业4.0主题股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>87.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0687</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -904,36 +1400,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002595</t>
+          <t>010666</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时工业4.0主题股票</t>
+          <t>博时高端装备混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>87.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -942,36 +1438,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010666</t>
+          <t>002567</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时高端装备混合C</t>
+          <t>大成国家安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>52.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -980,32 +1476,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002810</t>
+          <t>008867</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金信转型创新成长灵活配置混合</t>
+          <t>博时产业新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55.86</t>
+          <t>86.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1017,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1263,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1290,7 +1786,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1320,36 +1816,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008866</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时产业新趋势灵活配置混合A</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2178</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1368,26 +1864,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.11</t>
+          <t>75.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0859</t>
+          <t>0.1320</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1396,32 +1892,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010665</t>
+          <t>000264</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时高端装备混合A</t>
+          <t>博时内需增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>78.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1434,36 +1930,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002595</t>
+          <t>010665</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时工业4.0主题股票</t>
+          <t>博时高端装备混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0687</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1472,36 +1968,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010666</t>
+          <t>002595</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时高端装备混合C</t>
+          <t>博时工业4.0主题股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1510,36 +2006,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002567</t>
+          <t>010666</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成国家安全主题灵活配置混合</t>
+          <t>博时高端装备混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52.90</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1548,662 +2044,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008867</t>
+          <t>002810</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时产业新趋势灵活配置混合C</t>
+          <t>金信转型创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>55.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9671</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2440</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010052</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1666</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1502</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010375</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国金鑫悦经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0908</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000535</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长盛航天海工装备灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>73.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0641</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014606</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商高端装备混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>49.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014607</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商高端装备混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>49.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002681</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010376</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国金鑫悦经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002682</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>162107</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金鹰量化精选股票（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013479</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>金鹰先进制造股票（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2217,112 +2087,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.94</v>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.94</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.41</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -566,6 +583,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1191,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1513,7 +2118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1759,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2081,7 +2686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688636-智明达.xlsx
+++ b/数据整理/stocks/A股/科创板/688636-智明达.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>3.43</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>015115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合A</t>
+          <t>汇添富中国高端制造股票D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>24.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1427</t>
+          <t>0.8867</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015115</t>
+          <t>001725</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票D</t>
+          <t>汇添富中国高端制造股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.58</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.58</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7128</t>
+          <t>0.8383</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,22 +732,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001725</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票A</t>
+          <t>长城久嘉创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>24.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.58</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -740,11 +757,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7006</t>
+          <t>0.7070</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -763,26 +780,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2809</t>
+          <t>0.4538</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>汇添富竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.64</t>
+          <t>67.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1971</t>
+          <t>0.2440</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>75.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1773</t>
+          <t>0.1604</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -867,32 +884,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>560002</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>益民红利成长混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.1449</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -905,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014606</t>
+          <t>011903</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商高端装备混合A</t>
+          <t>南方领航优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>85.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0532</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -943,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014607</t>
+          <t>002746</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商高端装备混合C</t>
+          <t>汇添富多策略定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>68.73</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0488</t>
+          <t>0.0739</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -981,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002681</t>
+          <t>014606</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰元和灵活配置混合A</t>
+          <t>招商高端装备混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0652</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1019,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002682</t>
+          <t>014607</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金鹰元和灵活配置混合C</t>
+          <t>招商高端装备混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0523</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1057,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000432</t>
+          <t>011904</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银优秀企业混合</t>
+          <t>南方领航优选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>85.42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1105,26 +1122,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1143,26 +1160,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.58</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1171,6 +1188,594 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1796,7 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2118,7 +2723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2364,7 +2969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2686,7 +3291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
